--- a/Port Configuration.xlsx
+++ b/Port Configuration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18875" windowHeight="8172"/>
+    <workbookView windowWidth="23028" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="157">
   <si>
     <t>端口管脚</t>
   </si>
@@ -56,7 +56,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>灯珠</t>
+      <t>灯珠[</t>
     </r>
     <r>
       <rPr>
@@ -65,7 +65,16 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>(U14)</t>
+      <t>U14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
     </r>
   </si>
   <si>
@@ -132,7 +141,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>指示灯</t>
+      <t>指示灯[</t>
     </r>
     <r>
       <rPr>
@@ -141,7 +150,16 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>(D3)</t>
+      <t>D3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
     </r>
   </si>
   <si>
@@ -158,7 +176,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>蜂鸣器</t>
+      <t>蜂鸣器[</t>
     </r>
     <r>
       <rPr>
@@ -167,7 +185,16 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>(LS1)</t>
+      <t>LS1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
     </r>
   </si>
   <si>
@@ -181,19 +208,23 @@
   </si>
   <si>
     <r>
-      <t>74HC165</t>
-    </r>
-    <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>串并控制</t>
-    </r>
-  </si>
-  <si>
+      <t>拨码开关[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>U10/U12/U15</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -201,6 +232,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>使用手册见</t>
     </r>
     <r>
@@ -220,9 +262,24 @@
     <t>DIP_SW_CLK</t>
   </si>
   <si>
-    <r>
-      <t>74HC165</t>
-    </r>
+    <t>PC 9</t>
+  </si>
+  <si>
+    <t>DIP_SW_D</t>
+  </si>
+  <si>
+    <t>电机控制</t>
+  </si>
+  <si>
+    <t>PE 0</t>
+  </si>
+  <si>
+    <t>MOTOR_DIR_1</t>
+  </si>
+  <si>
+    <t>左前电机方向控制</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -230,19 +287,172 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>时钟输入</t>
-    </r>
-  </si>
-  <si>
-    <t>PC 9</t>
-  </si>
-  <si>
-    <t>DIP_SW_D</t>
-  </si>
-  <si>
-    <r>
-      <t>74HC165</t>
-    </r>
+      <t>使用手册见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Motor_A4931</t>
+    </r>
+  </si>
+  <si>
+    <t>PE 1</t>
+  </si>
+  <si>
+    <t>MOTOR_DIR_2</t>
+  </si>
+  <si>
+    <t>右前电机方向控制</t>
+  </si>
+  <si>
+    <t>PE 2</t>
+  </si>
+  <si>
+    <t>MOTOR_DIR_3</t>
+  </si>
+  <si>
+    <t>右后电机方向控制</t>
+  </si>
+  <si>
+    <t>PE 3</t>
+  </si>
+  <si>
+    <t>MOTOR_DIR_4</t>
+  </si>
+  <si>
+    <t>左后电机方向控制</t>
+  </si>
+  <si>
+    <t>PE 10</t>
+  </si>
+  <si>
+    <t>MOTOR_DIR_5</t>
+  </si>
+  <si>
+    <t>吸球电机方向控制</t>
+  </si>
+  <si>
+    <t>PE 4</t>
+  </si>
+  <si>
+    <t>MOTOR_BRK_1</t>
+  </si>
+  <si>
+    <t>左前电机刹车控制</t>
+  </si>
+  <si>
+    <t>PE 5</t>
+  </si>
+  <si>
+    <t>MOTOR_BRK_2</t>
+  </si>
+  <si>
+    <t>右前电机刹车控制</t>
+  </si>
+  <si>
+    <t>PE 6</t>
+  </si>
+  <si>
+    <t>MOTOR_BRK_3</t>
+  </si>
+  <si>
+    <t>右后电机刹车控制</t>
+  </si>
+  <si>
+    <t>PE 7</t>
+  </si>
+  <si>
+    <t>MOTOR_BRK_4</t>
+  </si>
+  <si>
+    <t>左后电机刹车控制</t>
+  </si>
+  <si>
+    <t>PE 8</t>
+  </si>
+  <si>
+    <t>MOTOR_BRK_5</t>
+  </si>
+  <si>
+    <t>吸球电机刹车控制</t>
+  </si>
+  <si>
+    <t>PE 9</t>
+  </si>
+  <si>
+    <t>TIM1 CH1</t>
+  </si>
+  <si>
+    <t>MOTOR_PWM_1</t>
+  </si>
+  <si>
+    <t>左前电机速度控制</t>
+  </si>
+  <si>
+    <t>PE 11</t>
+  </si>
+  <si>
+    <t>TIM1 CH2</t>
+  </si>
+  <si>
+    <t>MOTOR_PWM_2</t>
+  </si>
+  <si>
+    <t>右前电机速度控制</t>
+  </si>
+  <si>
+    <t>PE 13</t>
+  </si>
+  <si>
+    <t>TIM1 CH3</t>
+  </si>
+  <si>
+    <t>MOTOR_PWM_3</t>
+  </si>
+  <si>
+    <t>右后电机速度控制</t>
+  </si>
+  <si>
+    <t>PE 14</t>
+  </si>
+  <si>
+    <t>TIM1 CH4</t>
+  </si>
+  <si>
+    <t>MOTOR_PWM_4</t>
+  </si>
+  <si>
+    <t>左后电机速度控制</t>
+  </si>
+  <si>
+    <t>PB 9</t>
+  </si>
+  <si>
+    <t>TIM11 CH1</t>
+  </si>
+  <si>
+    <t>MR_BALL_PWM</t>
+  </si>
+  <si>
+    <t>吸球电机速度控制</t>
+  </si>
+  <si>
+    <t>编码器输入</t>
+  </si>
+  <si>
+    <t>PA 0</t>
+  </si>
+  <si>
+    <t>TIM5 CH1</t>
+  </si>
+  <si>
+    <t>ENCODER_A_1</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -250,22 +460,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>数据输出</t>
-    </r>
-  </si>
-  <si>
-    <t>电机控制</t>
-  </si>
-  <si>
-    <t>PE 0</t>
-  </si>
-  <si>
-    <t>MOTOR_DIR_1</t>
-  </si>
-  <si>
-    <t>左前电机方向控制</t>
-  </si>
-  <si>
+      <t>左前电机编码器[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>J11</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -273,7 +478,36 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>使用手册见</t>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>PA 1</t>
+  </si>
+  <si>
+    <t>TIM5 CH2</t>
+  </si>
+  <si>
+    <t>ENCODER_B_1</t>
+  </si>
+  <si>
+    <t>PA 6</t>
+  </si>
+  <si>
+    <t>TIM3 CH1</t>
+  </si>
+  <si>
+    <t>ENCODER_A_2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>右前电机编码器[</t>
     </r>
     <r>
       <rPr>
@@ -282,145 +516,8 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>Motor_A4931</t>
-    </r>
-  </si>
-  <si>
-    <t>PE 1</t>
-  </si>
-  <si>
-    <t>MOTOR_DIR_2</t>
-  </si>
-  <si>
-    <t>右前电机方向控制</t>
-  </si>
-  <si>
-    <t>PE 2</t>
-  </si>
-  <si>
-    <t>MOTOR_DIR_3</t>
-  </si>
-  <si>
-    <t>右后电机方向控制</t>
-  </si>
-  <si>
-    <t>PE 3</t>
-  </si>
-  <si>
-    <t>MOTOR_DIR_4</t>
-  </si>
-  <si>
-    <t>左后电机方向控制</t>
-  </si>
-  <si>
-    <t>PE 10</t>
-  </si>
-  <si>
-    <t>MOTOR_DIR_5</t>
-  </si>
-  <si>
-    <t>吸球电机方向控制</t>
-  </si>
-  <si>
-    <t>PE 4</t>
-  </si>
-  <si>
-    <t>MOTOR_BRK_1</t>
-  </si>
-  <si>
-    <t>左前电机刹车控制</t>
-  </si>
-  <si>
-    <t>PE 5</t>
-  </si>
-  <si>
-    <t>MOTOR_BRK_2</t>
-  </si>
-  <si>
-    <t>右前电机刹车控制</t>
-  </si>
-  <si>
-    <t>PE 6</t>
-  </si>
-  <si>
-    <t>MOTOR_BRK_3</t>
-  </si>
-  <si>
-    <t>右后电机刹车控制</t>
-  </si>
-  <si>
-    <t>PE 7</t>
-  </si>
-  <si>
-    <t>MOTOR_BRK_4</t>
-  </si>
-  <si>
-    <t>左后电机刹车控制</t>
-  </si>
-  <si>
-    <t>PE 8</t>
-  </si>
-  <si>
-    <t>MOTOR_BRK_5</t>
-  </si>
-  <si>
-    <t>吸球电机刹车控制</t>
-  </si>
-  <si>
-    <t>PE 9</t>
-  </si>
-  <si>
-    <t>MOTOR_PWM_1</t>
-  </si>
-  <si>
-    <t>左前电机速度控制</t>
-  </si>
-  <si>
-    <t>PE 11</t>
-  </si>
-  <si>
-    <t>MOTOR_PWM_2</t>
-  </si>
-  <si>
-    <t>右前电机速度控制</t>
-  </si>
-  <si>
-    <t>PE 13</t>
-  </si>
-  <si>
-    <t>MOTOR_PWM_3</t>
-  </si>
-  <si>
-    <t>右后电机速度控制</t>
-  </si>
-  <si>
-    <t>PE 14</t>
-  </si>
-  <si>
-    <t>MOTOR_PWM_4</t>
-  </si>
-  <si>
-    <t>左后电机速度控制</t>
-  </si>
-  <si>
-    <t>PB 9</t>
-  </si>
-  <si>
-    <t>MR_BALL_PWM</t>
-  </si>
-  <si>
-    <t>吸球电机速度控制</t>
-  </si>
-  <si>
-    <t>编码器输入</t>
-  </si>
-  <si>
-    <t>PA 0</t>
-  </si>
-  <si>
-    <t>ENCODER_A_1</t>
-  </si>
-  <si>
+      <t>J13</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -428,7 +525,36 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>左前电机编码器</t>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>PA 7</t>
+  </si>
+  <si>
+    <t>TIM3 CH2</t>
+  </si>
+  <si>
+    <t>ENCODER_B_2</t>
+  </si>
+  <si>
+    <t>PB 6</t>
+  </si>
+  <si>
+    <t>TIM4 CH1</t>
+  </si>
+  <si>
+    <t>ENCODER_A_3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>右后电机编码器[</t>
     </r>
     <r>
       <rPr>
@@ -437,22 +563,8 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>(J11)</t>
-    </r>
-  </si>
-  <si>
-    <t>PA 1</t>
-  </si>
-  <si>
-    <t>ENCODER_B_1</t>
-  </si>
-  <si>
-    <t>PA 6</t>
-  </si>
-  <si>
-    <t>ENCODER_A_2</t>
-  </si>
-  <si>
+      <t>J14</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -460,7 +572,36 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>右前电机编码器</t>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>PB 7</t>
+  </si>
+  <si>
+    <t>TIM4 CH2</t>
+  </si>
+  <si>
+    <t>ENCODER_B_3</t>
+  </si>
+  <si>
+    <t>PA 15</t>
+  </si>
+  <si>
+    <t>TIM2 CH1</t>
+  </si>
+  <si>
+    <t>ENCODER_A_4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左后电机编码器</t>
     </r>
     <r>
       <rPr>
@@ -469,20 +610,26 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>(J13)</t>
-    </r>
-  </si>
-  <si>
-    <t>PA 7</t>
-  </si>
-  <si>
-    <t>ENCODER_B_2</t>
-  </si>
-  <si>
-    <t>PB 6</t>
-  </si>
-  <si>
-    <t>ENCODER_A_3</t>
+      <t>[J16]</t>
+    </r>
+  </si>
+  <si>
+    <t>PB 3</t>
+  </si>
+  <si>
+    <t>TIM2 CH2</t>
+  </si>
+  <si>
+    <t>ENCODER_B_4</t>
+  </si>
+  <si>
+    <t>NRF无线模块</t>
+  </si>
+  <si>
+    <t>PD 0</t>
+  </si>
+  <si>
+    <t>RF_IRQ</t>
   </si>
   <si>
     <r>
@@ -492,7 +639,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>右后电机编码器</t>
+      <t>板载无线模块[</t>
     </r>
     <r>
       <rPr>
@@ -501,22 +648,8 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>(J14)</t>
-    </r>
-  </si>
-  <si>
-    <t>PB 7</t>
-  </si>
-  <si>
-    <t>ENCODER_B_3</t>
-  </si>
-  <si>
-    <t>PA 15</t>
-  </si>
-  <si>
-    <t>ENCODER_A_4</t>
-  </si>
-  <si>
+      <t>J3</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -524,8 +657,46 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>左后电机编码器</t>
-    </r>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>RF_SPI_nCS</t>
+  </si>
+  <si>
+    <t>PD 2</t>
+  </si>
+  <si>
+    <t>RF_CE</t>
+  </si>
+  <si>
+    <t>PC 10</t>
+  </si>
+  <si>
+    <t>SPI_SCK</t>
+  </si>
+  <si>
+    <t>PC 11</t>
+  </si>
+  <si>
+    <t>SPI_MISO</t>
+  </si>
+  <si>
+    <t>PC 12</t>
+  </si>
+  <si>
+    <t>SPI_MOSI</t>
+  </si>
+  <si>
+    <t>传感器模块</t>
+  </si>
+  <si>
+    <t>PB 10</t>
+  </si>
+  <si>
+    <t>I2C_SCL</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -533,25 +704,8 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>(J16)</t>
-    </r>
-  </si>
-  <si>
-    <t>PB 3</t>
-  </si>
-  <si>
-    <t>ENCODER_B_4</t>
-  </si>
-  <si>
-    <t>NRF无线模块</t>
-  </si>
-  <si>
-    <t>PD 0</t>
-  </si>
-  <si>
-    <t>RF_IRQ</t>
-  </si>
-  <si>
+      <t>MPU6050</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -559,7 +713,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>板载无线模块</t>
+      <t>陀螺仪[</t>
     </r>
     <r>
       <rPr>
@@ -568,35 +722,23 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>(J3)</t>
-    </r>
-  </si>
-  <si>
-    <t>RF_SPI_nCS</t>
-  </si>
-  <si>
-    <t>PD 2</t>
-  </si>
-  <si>
-    <t>RF_CE</t>
-  </si>
-  <si>
-    <t>PC 10</t>
-  </si>
-  <si>
-    <t>SPI_SCK</t>
-  </si>
-  <si>
-    <t>PC 11</t>
-  </si>
-  <si>
-    <t>SPI_MISO</t>
-  </si>
-  <si>
-    <t>PC 12</t>
-  </si>
-  <si>
-    <t>SPI_MOSI</t>
+      <t>U3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>PB 11</t>
+  </si>
+  <si>
+    <t>I2C_SDA</t>
   </si>
   <si>
     <t>串口USART</t>
@@ -705,6 +847,76 @@
   </si>
   <si>
     <t>BLE_RX</t>
+  </si>
+  <si>
+    <t>PE 15</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VOL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋</t>
+    </r>
+  </si>
+  <si>
+    <t>PD 15</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VOL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>－</t>
+    </r>
+  </si>
+  <si>
+    <t>PD 14</t>
+  </si>
+  <si>
+    <t>NEXT</t>
+  </si>
+  <si>
+    <t>PD 13</t>
+  </si>
+  <si>
+    <t>PREV</t>
+  </si>
+  <si>
+    <t>PC 3</t>
+  </si>
+  <si>
+    <t>RSTN</t>
+  </si>
+  <si>
+    <t>PC 4</t>
+  </si>
+  <si>
+    <t>MUTE</t>
   </si>
 </sst>
 </file>
@@ -712,12 +924,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,14 +958,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,6 +981,44 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,14 +1049,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,44 +1080,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -876,11 +1088,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -897,187 +1115,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,6 +1319,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1111,41 +1344,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,6 +1372,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1188,25 +1415,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1215,133 +1433,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1681,10 +1899,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="4"/>
@@ -1796,38 +2014,32 @@
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:4">
+    <row r="14" s="1" customFormat="1" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
@@ -1836,130 +2048,136 @@
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:4">
       <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:4">
       <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:4">
       <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:4">
       <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:4">
       <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:4">
       <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:4">
       <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:4">
       <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:4">
       <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:4">
       <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:4">
       <c r="A31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1973,38 +2191,47 @@
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:5">
       <c r="A36" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="3"/>
@@ -2013,83 +2240,107 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:5">
       <c r="A49" s="5" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="3"/>
@@ -2098,13 +2349,13 @@
     </row>
     <row r="50" s="1" customFormat="1" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:3">
@@ -2112,124 +2363,203 @@
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:5">
       <c r="A57" s="5" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>125</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:5">
+      <c r="A67" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="21">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A49:E49"/>
     <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A67:E67"/>
     <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D13:D15"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="D50:D55"/>
     <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D73:D80"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="E18:E34"/>

--- a/Port Configuration.xlsx
+++ b/Port Configuration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9947"/>
+    <workbookView windowWidth="23028" windowHeight="9684"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>端口管脚</t>
   </si>
@@ -661,6 +661,9 @@
     </r>
   </si>
   <si>
+    <t>PD 1</t>
+  </si>
+  <si>
     <t>RF_SPI_nCS</t>
   </si>
   <si>
@@ -673,6 +676,9 @@
     <t>PC 10</t>
   </si>
   <si>
+    <t>SPI3</t>
+  </si>
+  <si>
     <t>SPI_SCK</t>
   </si>
   <si>
@@ -739,6 +745,33 @@
   </si>
   <si>
     <t>I2C_SDA</t>
+  </si>
+  <si>
+    <t>ADC输入</t>
+  </si>
+  <si>
+    <t>PB 0</t>
+  </si>
+  <si>
+    <t>ADC12_IN8</t>
+  </si>
+  <si>
+    <t>ADC_CAP_V</t>
+  </si>
+  <si>
+    <t>电容电压</t>
+  </si>
+  <si>
+    <t>PB 1</t>
+  </si>
+  <si>
+    <t>ADC12_IN9</t>
+  </si>
+  <si>
+    <t>ADC_BAT_V</t>
+  </si>
+  <si>
+    <t>电池电压</t>
   </si>
   <si>
     <t>串口USART</t>
@@ -924,9 +957,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -951,59 +984,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,9 +997,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1049,6 +1029,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1073,7 +1113,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,13 +1127,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="SimSun"/>
@@ -1115,13 +1148,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,13 +1274,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,151 +1328,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,6 +1348,50 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1351,52 +1428,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1421,10 +1454,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1433,133 +1466,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1901,8 +1934,8 @@
   <sheetPr/>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="4"/>
@@ -2360,47 +2393,50 @@
     </row>
     <row r="51" s="1" customFormat="1" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:5">
       <c r="A57" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="3"/>
@@ -2409,26 +2445,63 @@
     </row>
     <row r="58" s="1" customFormat="1" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:5">
       <c r="A67" s="5" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2437,118 +2510,120 @@
     </row>
     <row r="68" s="1" customFormat="1" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A49:E49"/>
     <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A61:E61"/>
     <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B53:B55"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="D37:D38"/>

--- a/Port Configuration.xlsx
+++ b/Port Configuration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9684"/>
+    <workbookView windowWidth="23016" windowHeight="9684"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>端口管脚</t>
   </si>
@@ -441,6 +441,70 @@
     <t>吸球电机速度控制</t>
   </si>
   <si>
+    <t>PA 2</t>
+  </si>
+  <si>
+    <t>TIM9 CH1</t>
+  </si>
+  <si>
+    <t>SHOOT</t>
+  </si>
+  <si>
+    <r>
+      <t>平射击球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PWM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出</t>
+    </r>
+  </si>
+  <si>
+    <t>PA 3</t>
+  </si>
+  <si>
+    <t>TIM9 CH2</t>
+  </si>
+  <si>
+    <t>CHIP</t>
+  </si>
+  <si>
+    <r>
+      <t>挑射击球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PWM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出</t>
+    </r>
+  </si>
+  <si>
     <t>编码器输入</t>
   </si>
   <si>
@@ -745,6 +809,24 @@
   </si>
   <si>
     <t>I2C_SDA</t>
+  </si>
+  <si>
+    <t>PC 0</t>
+  </si>
+  <si>
+    <t>IR_BALL_DECT</t>
+  </si>
+  <si>
+    <t>红外线传感器</t>
+  </si>
+  <si>
+    <t>PC 13</t>
+  </si>
+  <si>
+    <t>SHOOT_OFF</t>
+  </si>
+  <si>
+    <t>电容电压比较器输出</t>
   </si>
   <si>
     <t>ADC输入</t>
@@ -959,8 +1041,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -984,6 +1066,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -997,15 +1101,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1013,23 +1110,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,30 +1155,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,18 +1170,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1111,7 +1194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1120,7 +1202,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1148,13 +1230,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,91 +1386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,73 +1410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,27 +1437,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1410,6 +1487,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1434,17 +1522,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1454,10 +1536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1466,19 +1548,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1487,112 +1569,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1932,10 +2014,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="4"/>
@@ -2262,314 +2344,316 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:5">
-      <c r="A36" s="5" t="s">
+    <row r="35" s="1" customFormat="1" spans="4:4">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:4">
+      <c r="A36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="B36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="1" t="s">
         <v>88</v>
       </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:5">
+      <c r="A39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:5">
-      <c r="A49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:4">
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:3">
-      <c r="A52" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" spans="1:3">
+    <row r="52" s="1" customFormat="1" spans="1:5">
+      <c r="A52" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:5">
-      <c r="A57" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:4">
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:3">
-      <c r="A59" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:5">
+      <c r="A60" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D63" s="2" t="s">
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:4">
+      <c r="A64" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="1:5">
-      <c r="A67" s="5" t="s">
+      <c r="C64" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="1:4">
-      <c r="A68" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="1" t="s">
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:4">
+      <c r="A65" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D65" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="4:4">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="68" ht="17.4" spans="1:5">
+      <c r="A68" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C73" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
+    <row r="74" s="1" customFormat="1" spans="1:5">
+      <c r="A74" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:4">
+      <c r="A75" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2581,36 +2665,90 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="D77" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C79" s="1" t="s">
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2618,23 +2756,23 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="B56:B58"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D37:D38"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D73:D80"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D80:D87"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="E18:E34"/>

--- a/Port Configuration.xlsx
+++ b/Port Configuration.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>端口管脚</t>
   </si>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>平射击球</t>
     </r>
     <r>
@@ -483,6 +489,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>挑射击球</t>
     </r>
     <r>
@@ -809,6 +821,29 @@
   </si>
   <si>
     <t>I2C_SDA</t>
+  </si>
+  <si>
+    <t>PB 8</t>
+  </si>
+  <si>
+    <t>TIM10 CH1</t>
+  </si>
+  <si>
+    <t>IR_PWM</t>
+  </si>
+  <si>
+    <r>
+      <t>红外线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LED</t>
+    </r>
   </si>
   <si>
     <t>PC 0</t>
@@ -1065,53 +1100,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1133,6 +1124,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1140,7 +1146,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1148,7 +1161,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,48 +1231,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1230,187 +1265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1430,6 +1465,21 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1457,21 +1507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1483,32 +1518,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1530,16 +1539,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1548,133 +1583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2014,10 +2049,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="4"/>
@@ -2575,53 +2610,53 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" spans="1:4">
+    <row r="64" customFormat="1" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="B64" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="C64" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="4:4">
-      <c r="D66" s="2"/>
-    </row>
-    <row r="68" ht="17.4" spans="1:5">
-      <c r="A68" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1" t="s">
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:4">
+      <c r="A66" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D69" s="2" t="s">
+    </row>
+    <row r="67" s="1" customFormat="1" spans="4:4">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="69" ht="17.4" spans="1:5">
+      <c r="A69" s="5" t="s">
         <v>149</v>
       </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
@@ -2637,118 +2672,132 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" spans="1:5">
-      <c r="A74" s="5" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="1:4">
-      <c r="A75" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="75" s="1" customFormat="1" spans="1:5">
+      <c r="A75" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>160</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D80" s="1" t="s">
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="C79" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2759,8 +2808,8 @@
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A75:E75"/>
     <mergeCell ref="B56:B58"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D13:D15"/>
@@ -2770,9 +2819,9 @@
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="D53:D58"/>
     <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="D80:D87"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D81:D88"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="E18:E34"/>
